--- a/my_data/Hand-measured NOR times.xlsx
+++ b/my_data/Hand-measured NOR times.xlsx
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
